--- a/static/SkyAirtime_Technical_Services_Pricing.xlsx
+++ b/static/SkyAirtime_Technical_Services_Pricing.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="14500" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14740" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
     <t>Total Discount</t>
   </si>
   <si>
-    <t>45% off List</t>
+    <t>46% off list</t>
   </si>
 </sst>
 </file>
@@ -469,13 +469,14 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A2"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="30.83203125" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="29.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="20">
@@ -510,10 +511,11 @@
         <v>150</v>
       </c>
       <c r="C4" s="4">
-        <v>0.45</v>
+        <v>0.46</v>
       </c>
       <c r="D4" s="3">
-        <v>82.5</v>
+        <f>B4-(B4*C4)</f>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="20">
@@ -524,10 +526,11 @@
         <v>90</v>
       </c>
       <c r="C5" s="4">
-        <v>0.45</v>
+        <v>0.46</v>
       </c>
       <c r="D5" s="3">
-        <v>49.5</v>
+        <f t="shared" ref="D5:D10" si="0">B5-(B5*C5)</f>
+        <v>48.6</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="20">
@@ -538,10 +541,11 @@
         <v>65</v>
       </c>
       <c r="C6" s="4">
-        <v>0.45</v>
+        <v>0.46</v>
       </c>
       <c r="D6" s="3">
-        <v>35.75</v>
+        <f t="shared" si="0"/>
+        <v>35.099999999999994</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="20">
@@ -552,10 +556,11 @@
         <v>53</v>
       </c>
       <c r="C7" s="4">
-        <v>0.45</v>
+        <v>0.46</v>
       </c>
       <c r="D7" s="3">
-        <v>29.15</v>
+        <f t="shared" si="0"/>
+        <v>28.619999999999997</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="20">
@@ -566,10 +571,11 @@
         <v>60</v>
       </c>
       <c r="C8" s="4">
-        <v>0.45</v>
+        <v>0.46</v>
       </c>
       <c r="D8" s="3">
-        <v>33</v>
+        <f t="shared" si="0"/>
+        <v>32.4</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="20">
@@ -580,10 +586,11 @@
         <v>45</v>
       </c>
       <c r="C9" s="4">
-        <v>0.45</v>
+        <v>0.46</v>
       </c>
       <c r="D9" s="3">
-        <v>24.75</v>
+        <f t="shared" si="0"/>
+        <v>24.3</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="20">
@@ -594,10 +601,11 @@
         <v>36</v>
       </c>
       <c r="C10" s="4">
-        <v>0.45</v>
+        <v>0.46</v>
       </c>
       <c r="D10" s="3">
-        <v>19.8</v>
+        <f t="shared" si="0"/>
+        <v>19.439999999999998</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="20">
